--- a/PPT/Appendix/3-Git/git command.xlsx
+++ b/PPT/Appendix/3-Git/git command.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Git task</t>
   </si>
@@ -296,16 +296,19 @@
   <si>
     <t>git grep "foo()"</t>
   </si>
+  <si>
+    <t>git push -f origin HEAD^:master</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,6 +358,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -471,7 +480,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -512,10 +521,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,14 +551,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -837,17 +849,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+    <col min="3" max="3" width="74.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1">
@@ -872,8 +884,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -890,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" thickBot="1">
+    <row r="5" spans="1:3" ht="17.25" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -902,7 +914,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -910,11 +922,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -922,13 +934,13 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
@@ -945,7 +957,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="50.25" thickBot="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
@@ -987,7 +999,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1007,7 +1019,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1015,8 +1027,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="50.25" thickBot="1">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:3" ht="33.75" thickBot="1">
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1025,7 +1037,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1034,7 +1046,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
@@ -1042,8 +1054,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
@@ -1051,8 +1063,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A22" s="15"/>
+    <row r="22" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="50.25" thickBot="1">
+    <row r="23" spans="1:3" ht="33.75" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
@@ -1072,7 +1084,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1081,7 +1093,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1089,8 +1101,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="33">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:3" ht="16.5">
+      <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1099,7 +1111,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
@@ -1108,7 +1120,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
@@ -1116,8 +1128,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="50.25" thickBot="1">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:3" ht="33.75" thickBot="1">
+      <c r="A29" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1128,7 +1140,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="50.25" thickBot="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
@@ -1137,7 +1149,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
@@ -1152,20 +1164,20 @@
       <c r="B32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" thickBot="1">
-      <c r="A33" s="14"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="21" t="s">
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -1173,18 +1185,18 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="33.75" thickBot="1">
+    <row r="37" spans="1:3" ht="17.25" thickBot="1">
       <c r="A37" s="12" t="s">
         <v>76</v>
       </c>
@@ -1195,20 +1207,25 @@
         <v>78</v>
       </c>
     </row>
+    <row r="39" spans="1:3">
+      <c r="C39" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.atlassian.com/git/tutorials/setting-up-a-repository/git-config"/>
@@ -1235,7 +1252,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1247,7 +1264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
